--- a/Documents/TestExcel_A.xlsx
+++ b/Documents/TestExcel_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyh/Projects/ReadExcelForUnity/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyh/github/CommonFramework/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6E845A-B434-B54F-A45D-63CB8AD6B4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EE0D66-9B28-8347-9534-26109AD525AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38940" yWindow="2240" windowWidth="28240" windowHeight="16280" activeTab="1" xr2:uid="{E9EB01C7-31A7-7F41-94B1-C64158358FD1}"/>
+    <workbookView xWindow="38940" yWindow="2240" windowWidth="28240" windowHeight="16280" xr2:uid="{E9EB01C7-31A7-7F41-94B1-C64158358FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,31 +52,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>李二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>张一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ulong</t>
+    <t>!王三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8F9297-F0C7-2248-A96F-7E6389755247}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -473,34 +485,45 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <v>105467.567</v>
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>999.25540000000001</v>
+        <v>105467.567</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>999.25540000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>35485.120000000003</v>
       </c>
     </row>
@@ -514,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5761EEF5-48CA-184D-B1D4-51C88051BFDA}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -522,18 +545,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/Documents/TestExcel_A.xlsx
+++ b/Documents/TestExcel_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyh/github/CommonFramework/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EE0D66-9B28-8347-9534-26109AD525AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E283588-73BB-EA49-9EB9-5CF4E7271971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38940" yWindow="2240" windowWidth="28240" windowHeight="16280" xr2:uid="{E9EB01C7-31A7-7F41-94B1-C64158358FD1}"/>
   </bookViews>
@@ -28,10 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Age</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +85,10 @@
   </si>
   <si>
     <t>!王三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,47 +456,47 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>28</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>55</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -545,18 +545,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/Documents/TestExcel_A.xlsx
+++ b/Documents/TestExcel_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyh/github/CommonFramework/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E283588-73BB-EA49-9EB9-5CF4E7271971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65754AEB-760F-D842-9BBD-9B30B8C3D3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38940" yWindow="2240" windowWidth="28240" windowHeight="16280" xr2:uid="{E9EB01C7-31A7-7F41-94B1-C64158358FD1}"/>
+    <workbookView xWindow="40200" yWindow="4560" windowWidth="28240" windowHeight="16280" activeTab="1" xr2:uid="{E9EB01C7-31A7-7F41-94B1-C64158358FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8F9297-F0C7-2248-A96F-7E6389755247}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5761EEF5-48CA-184D-B1D4-51C88051BFDA}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
